--- a/tti_tts_datatab_ggplot.xlsx
+++ b/tti_tts_datatab_ggplot.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Games\Schule_Studium\Bachelorarbeit\BTDocumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC1F6A2-B5D9-4181-A7E0-5D4A16DF7D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC3FB8E-0C56-4B3B-AFDB-5DF3C88BF8E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25050" yWindow="1695" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
     <t>Time in s</t>
   </si>
   <si>
-    <t>Time to Submission &gt;2</t>
+    <t>Time to Submission &gt;1 Marked Location</t>
   </si>
 </sst>
 </file>
@@ -430,13 +430,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E80" sqref="E80"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="G81" sqref="G81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -444,7 +444,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>76</v>
       </c>
@@ -452,7 +452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>111</v>
       </c>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>31</v>
       </c>
@@ -468,7 +468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>126</v>
       </c>
@@ -476,7 +476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>338</v>
       </c>
@@ -484,7 +484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>113</v>
       </c>
@@ -500,7 +500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>31</v>
       </c>
@@ -508,7 +508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>154</v>
       </c>
@@ -516,7 +516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>80</v>
       </c>
@@ -524,7 +524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>13</v>
       </c>
@@ -532,7 +532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>492</v>
       </c>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>32</v>
       </c>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>21</v>
       </c>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>101</v>
       </c>
@@ -564,7 +564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>126</v>
       </c>
@@ -572,7 +572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>58</v>
       </c>
@@ -580,7 +580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>64</v>
       </c>
@@ -588,7 +588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>102</v>
       </c>
@@ -596,7 +596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>100</v>
       </c>
@@ -604,7 +604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>32</v>
       </c>
@@ -612,7 +612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>437</v>
       </c>
@@ -620,7 +620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>63</v>
       </c>
@@ -628,7 +628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>56</v>
       </c>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>9</v>
       </c>
@@ -644,7 +644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>48</v>
       </c>
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0</v>
       </c>
@@ -660,7 +660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>43</v>
       </c>
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>136</v>
       </c>
@@ -676,7 +676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>46</v>
       </c>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>81</v>
       </c>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>89</v>
       </c>
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>0</v>
       </c>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>570</v>
       </c>
@@ -716,7 +716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>0</v>
       </c>
@@ -1091,9 +1091,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1101,7 +1101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1123,9 +1123,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1133,7 +1133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
